--- a/Info.xlsx
+++ b/Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webapp\web-space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F8B691-B223-400E-8030-D16B2629FE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B3ACEF-5EC2-42F5-A285-5B5E31BB58B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>No.</t>
   </si>
@@ -137,6 +136,15 @@
   </si>
   <si>
     <t>nz23-ijde-258u</t>
+  </si>
+  <si>
+    <t>odoo</t>
+  </si>
+  <si>
+    <t>ERP</t>
+  </si>
+  <si>
+    <t>project management</t>
   </si>
 </sst>
 </file>
@@ -257,7 +265,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -276,7 +284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -562,7 +569,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,7 +740,9 @@
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
@@ -762,7 +771,7 @@
       <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="7"/>
@@ -773,10 +782,14 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>36</v>

--- a/Info.xlsx
+++ b/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webapp\web-space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B3ACEF-5EC2-42F5-A285-5B5E31BB58B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9CC79A-A09E-4C5D-A668-2C92799DE421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>No.</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>project management</t>
+  </si>
+  <si>
+    <t>bbalet/bbalet</t>
+  </si>
+  <si>
+    <t>nguyen.nguyen.6bk@gmail.com / Admin@123</t>
   </si>
 </sst>
 </file>
@@ -265,7 +271,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -278,6 +284,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,10 +576,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
@@ -686,7 +693,9 @@
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
@@ -750,14 +759,14 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="1"/>
@@ -767,14 +776,14 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
@@ -786,7 +795,9 @@
         <v>37</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
@@ -888,6 +899,8 @@
     <hyperlink ref="C9" r:id="rId7" xr:uid="{F4CD5271-D7E8-4E87-90C3-E5387C07E87C}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{C824B9C7-2EAC-48AF-BE54-BC30AF8BA6BF}"/>
     <hyperlink ref="C11" r:id="rId9" xr:uid="{4086AFED-5570-4B84-80EB-0C4962997C6B}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{BC2C6B3D-2DD4-44AB-A786-4BBBE8BCA716}"/>
+    <hyperlink ref="D12" r:id="rId11" display="nguyen.nguyen.6bk@gmail.com / Admin123" xr:uid="{2CD4AC99-CBCD-4A3D-B168-3F8C99B2F6DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
